--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>41845.437</v>
       </c>
       <c r="F2">
-        <v>5361.563</v>
+        <v>4427.354</v>
       </c>
       <c r="G2">
+        <v>934.2089999999999</v>
+      </c>
+      <c r="H2">
         <v>47207</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>840.4409999999998</v>
@@ -926,21 +935,24 @@
         <v>4433.559</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5274</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>13008.12</v>
@@ -949,21 +961,24 @@
         <v>20805.88</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>33814</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>11463.809</v>
@@ -972,21 +987,24 @@
         <v>20741.191</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>32205</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>11074.393</v>
@@ -995,6 +1013,9 @@
         <v>20767.607</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>31842</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>445577.273</v>
       </c>
       <c r="F2">
-        <v>713881.727</v>
+        <v>699005.505</v>
       </c>
       <c r="G2">
+        <v>14876.222</v>
+      </c>
+      <c r="H2">
         <v>1159459</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>551111.55</v>
       </c>
       <c r="F3">
-        <v>885077.45</v>
+        <v>825941.6</v>
       </c>
       <c r="G3">
+        <v>59135.85</v>
+      </c>
+      <c r="H3">
         <v>1436189</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>168975.6819999999</v>
       </c>
       <c r="F4">
-        <v>536439.3180000001</v>
+        <v>530408.3</v>
       </c>
       <c r="G4">
+        <v>6031.018</v>
+      </c>
+      <c r="H4">
         <v>705415</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>468159.014</v>
       </c>
       <c r="F5">
-        <v>713762.986</v>
+        <v>698876.952</v>
       </c>
       <c r="G5">
+        <v>14886.034</v>
+      </c>
+      <c r="H5">
         <v>1181922</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>1023350.917</v>
       </c>
       <c r="F6">
-        <v>1696645.083</v>
+        <v>1578528.533</v>
       </c>
       <c r="G6">
+        <v>118116.55</v>
+      </c>
+      <c r="H6">
         <v>2719996</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>1018958.334</v>
       </c>
       <c r="F7">
-        <v>1696701.666</v>
+        <v>1578595.226</v>
       </c>
       <c r="G7">
+        <v>118106.44</v>
+      </c>
+      <c r="H7">
         <v>2715660</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
-        <v>879007.4859999998</v>
+        <v>879007.4859999999</v>
       </c>
       <c r="F8">
-        <v>1444026.514</v>
+        <v>1325831.6</v>
       </c>
       <c r="G8">
+        <v>118194.914</v>
+      </c>
+      <c r="H8">
         <v>2323034</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>205987.443</v>
+        <v>205987.4429999999</v>
       </c>
       <c r="F9">
-        <v>1144730.557</v>
+        <v>1129801.6</v>
       </c>
       <c r="G9">
+        <v>14928.957</v>
+      </c>
+      <c r="H9">
         <v>1350718</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
-        <v>333769.9189999999</v>
+        <v>333769.919</v>
       </c>
       <c r="F2">
-        <v>538862.0810000001</v>
+        <v>479734.771</v>
       </c>
       <c r="G2">
+        <v>59127.31</v>
+      </c>
+      <c r="H2">
         <v>872632</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
-        <v>678705.3629999999</v>
+        <v>678705.363</v>
       </c>
       <c r="F3">
-        <v>632358.6370000001</v>
+        <v>514254.012</v>
       </c>
       <c r="G3">
+        <v>118104.625</v>
+      </c>
+      <c r="H3">
         <v>1311064</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>310438.779</v>
       </c>
       <c r="F4">
-        <v>94745.22100000001</v>
+        <v>47428.037</v>
       </c>
       <c r="G4">
+        <v>47317.184</v>
+      </c>
+      <c r="H4">
         <v>405184</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1138.334</v>
@@ -1337,21 +1397,24 @@
         <v>249.666</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1388</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1227.421</v>
@@ -1360,136 +1423,154 @@
         <v>242.579</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1470</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>334167.365</v>
       </c>
       <c r="F7">
-        <v>538857.635</v>
+        <v>479752.201</v>
       </c>
       <c r="G7">
+        <v>59105.434</v>
+      </c>
+      <c r="H7">
         <v>873025</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>331014.648</v>
       </c>
       <c r="F8">
-        <v>538898.352</v>
+        <v>479728.735</v>
       </c>
       <c r="G8">
+        <v>59169.617</v>
+      </c>
+      <c r="H8">
         <v>869913</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>331699.653</v>
       </c>
       <c r="F9">
-        <v>538850.347</v>
+        <v>479737.464</v>
       </c>
       <c r="G9">
+        <v>59112.883</v>
+      </c>
+      <c r="H9">
         <v>870550</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>654882.9110000001</v>
       </c>
       <c r="F10">
-        <v>632580.0889999999</v>
+        <v>514472.784</v>
       </c>
       <c r="G10">
+        <v>118107.305</v>
+      </c>
+      <c r="H10">
         <v>1287463</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>303775.746</v>
       </c>
       <c r="F11">
-        <v>94741.254</v>
+        <v>47431.777</v>
       </c>
       <c r="G11">
+        <v>47309.477</v>
+      </c>
+      <c r="H11">
         <v>398517</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1287.221</v>
@@ -1498,21 +1579,24 @@
         <v>264.779</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1552</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1242.924</v>
@@ -1521,6 +1605,9 @@
         <v>218.076</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1461</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>670776.6869999999</v>
+        <v>670776.687</v>
       </c>
       <c r="F2">
-        <v>1078063.313</v>
+        <v>959799.137</v>
       </c>
       <c r="G2">
+        <v>118264.176</v>
+      </c>
+      <c r="H2">
         <v>1748840</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
         <v>1311688.757</v>
       </c>
       <c r="F3">
-        <v>1267296.243</v>
+        <v>1031048.219</v>
       </c>
       <c r="G3">
+        <v>236248.024</v>
+      </c>
+      <c r="H3">
         <v>2578985</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>531953.351</v>
       </c>
       <c r="F4">
-        <v>189760.649</v>
+        <v>95104.27199999998</v>
       </c>
       <c r="G4">
+        <v>94656.37700000001</v>
+      </c>
+      <c r="H4">
         <v>721714</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3467.119</v>
@@ -1646,21 +1745,24 @@
         <v>773.881</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4241</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3336.707</v>
@@ -1669,136 +1771,154 @@
         <v>732.2929999999999</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4069</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>661955.648</v>
       </c>
       <c r="F7">
-        <v>1077955.352</v>
+        <v>959716.422</v>
       </c>
       <c r="G7">
+        <v>118238.93</v>
+      </c>
+      <c r="H7">
         <v>1739911</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>658153.8289999999</v>
+        <v>658153.8290000001</v>
       </c>
       <c r="F8">
-        <v>1077975.171</v>
+        <v>959728.4209999999</v>
       </c>
       <c r="G8">
+        <v>118246.75</v>
+      </c>
+      <c r="H8">
         <v>1736129</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
         <v>652064.0819999999</v>
       </c>
       <c r="F9">
-        <v>1077994.918</v>
+        <v>959679.696</v>
       </c>
       <c r="G9">
+        <v>118315.222</v>
+      </c>
+      <c r="H9">
         <v>1730059</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>1309046.042</v>
       </c>
       <c r="F10">
-        <v>1268930.958</v>
+        <v>1032718.513</v>
       </c>
       <c r="G10">
+        <v>236212.445</v>
+      </c>
+      <c r="H10">
         <v>2577977</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
-        <v>526805.499</v>
+        <v>526805.4990000001</v>
       </c>
       <c r="F11">
-        <v>189727.501</v>
+        <v>95078.534</v>
       </c>
       <c r="G11">
+        <v>94648.967</v>
+      </c>
+      <c r="H11">
         <v>716533</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3278.035</v>
@@ -1807,21 +1927,24 @@
         <v>751.965</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4030</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3139.805</v>
@@ -1830,6 +1953,9 @@
         <v>622.1950000000001</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3762</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>752.155</v>
@@ -1886,21 +2015,24 @@
         <v>101.845</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>854</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>24268.557</v>
@@ -1909,21 +2041,24 @@
         <v>100.443</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>24369</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>93993.353</v>
@@ -1932,21 +2067,24 @@
         <v>127.647</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>94121</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>38525.867</v>
@@ -1955,21 +2093,24 @@
         <v>101.133</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>38627</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>438.998</v>
@@ -1978,21 +2119,24 @@
         <v>103.002</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>804.178</v>
@@ -2001,21 +2145,24 @@
         <v>105.822</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>910</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>1516.194</v>
@@ -2024,21 +2171,24 @@
         <v>101.806</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1618</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>1792.042</v>
@@ -2047,21 +2197,24 @@
         <v>94.958</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1887</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>1523.922</v>
@@ -2070,21 +2223,24 @@
         <v>107.078</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1631</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>79544.08500000001</v>
@@ -2093,21 +2249,24 @@
         <v>114.915</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>79659</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>35305.718</v>
@@ -2116,21 +2275,24 @@
         <v>104.282</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>35410</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>512.21</v>
@@ -2139,6 +2301,9 @@
         <v>96.79000000000001</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>609</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>110745.12</v>
@@ -2195,21 +2363,24 @@
         <v>31513.88</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>142259</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>224841.023</v>
@@ -2218,21 +2389,24 @@
         <v>62866.977</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>287708</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>95819.64999999999</v>
@@ -2241,21 +2415,24 @@
         <v>25209.35</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>121029</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>517.758</v>
@@ -2264,21 +2441,24 @@
         <v>105.242</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>440.454</v>
@@ -2287,21 +2467,24 @@
         <v>101.546</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>110555.1875</v>
@@ -2310,21 +2493,24 @@
         <v>31476.8125</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>142032</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>111670.703</v>
@@ -2333,21 +2519,24 @@
         <v>31459.297</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>143130</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>110248.914</v>
@@ -2356,21 +2545,24 @@
         <v>31513.086</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>141762</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>220005.973</v>
@@ -2379,21 +2571,24 @@
         <v>62854.027</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>282860</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>92722.89999999999</v>
@@ -2402,21 +2597,24 @@
         <v>25211.1</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>117934</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>478.137</v>
@@ -2425,21 +2623,24 @@
         <v>104.863</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>425.095</v>
@@ -2448,6 +2649,9 @@
         <v>100.905</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>526</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>11065.56000000006</v>
@@ -2504,21 +2711,24 @@
         <v>575297.4399999999</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>586363</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>778.4199999999983</v>
@@ -2527,21 +2737,24 @@
         <v>90027.58</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>90806</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>6123.099999999977</v>
@@ -2550,21 +2763,24 @@
         <v>486700.9</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>492824</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>6212.280000000028</v>
@@ -2573,21 +2789,24 @@
         <v>486191.72</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>492404</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>5928.530000000028</v>
@@ -2596,21 +2815,24 @@
         <v>486257.47</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>492186</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>15949.5</v>
@@ -2619,21 +2841,24 @@
         <v>575264.5</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>591214</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>656.0859999999957</v>
@@ -2642,6 +2867,9 @@
         <v>90018.914</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>90675</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>78232.2</v>
+        <v>79166.409</v>
       </c>
       <c r="E2">
-        <v>72109.8</v>
+        <v>71175.591</v>
       </c>
       <c r="F2">
         <v>150342</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>554846.0310000001</v>
+        <v>556757.26</v>
       </c>
       <c r="E3">
-        <v>3877846.969</v>
+        <v>3875935.74</v>
       </c>
       <c r="F3">
         <v>4432693</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>9494374.15000001</v>
+        <v>10061950.53900001</v>
       </c>
       <c r="E4">
-        <v>10834987.84999999</v>
+        <v>10267411.46099999</v>
       </c>
       <c r="F4">
         <v>20329362</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>114387.127</v>
+        <v>115249.428</v>
       </c>
       <c r="E5">
-        <v>6868.873</v>
+        <v>6006.572</v>
       </c>
       <c r="F5">
         <v>121256</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1365912.7405</v>
+        <v>1366813.4855</v>
       </c>
       <c r="E7">
-        <v>1227397.2595</v>
+        <v>1226496.5145</v>
       </c>
       <c r="F7">
         <v>2593310</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1349996.396</v>
+        <v>1586651.8</v>
       </c>
       <c r="E8">
-        <v>6149813.604</v>
+        <v>5913158.2</v>
       </c>
       <c r="F8">
         <v>7499810</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>519626.612</v>
+        <v>528486.986</v>
       </c>
       <c r="E9">
-        <v>873182.388</v>
+        <v>864322.014</v>
       </c>
       <c r="F9">
         <v>1392809</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>4761127.698999999</v>
+        <v>5225403.684</v>
       </c>
       <c r="E11">
-        <v>8831265.301000001</v>
+        <v>8366989.316</v>
       </c>
       <c r="F11">
         <v>13592393</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3283350.284</v>
+        <v>3850704.119</v>
       </c>
       <c r="E12">
-        <v>3610868.716</v>
+        <v>3043514.881000001</v>
       </c>
       <c r="F12">
         <v>6894219</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>6335665.561</v>
+        <v>7470496.452</v>
       </c>
       <c r="E13">
-        <v>7230584.439</v>
+        <v>6095753.548</v>
       </c>
       <c r="F13">
         <v>13566250</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>96611.341</v>
       </c>
       <c r="F2">
-        <v>98344.659</v>
+        <v>97501.73</v>
       </c>
       <c r="G2">
+        <v>842.929</v>
+      </c>
+      <c r="H2">
         <v>194956</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>18068.05</v>
@@ -3051,21 +3285,24 @@
         <v>16705.95</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>34774</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>643.8770000000004</v>
@@ -3074,67 +3311,76 @@
         <v>7518.123</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>8162</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2384.884</v>
       </c>
       <c r="F5">
-        <v>3323.116</v>
+        <v>3220.056</v>
       </c>
       <c r="G5">
+        <v>103.06</v>
+      </c>
+      <c r="H5">
         <v>5708</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>9613.704999999994</v>
+        <v>9613.705</v>
       </c>
       <c r="F6">
-        <v>52448.29500000001</v>
+        <v>51483.055</v>
       </c>
       <c r="G6">
+        <v>965.24</v>
+      </c>
+      <c r="H6">
         <v>62062</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>91973.59</v>
@@ -3143,21 +3389,24 @@
         <v>97627.41</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>189601</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>106838.25</v>
@@ -3166,21 +3415,24 @@
         <v>1191455.75</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1298294</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>105769.75</v>
@@ -3189,21 +3441,24 @@
         <v>1191427.25</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1297197</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>105334</v>
@@ -3212,21 +3467,24 @@
         <v>1191405</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>1296739</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>16669.434</v>
@@ -3235,21 +3493,24 @@
         <v>16733.566</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>33403</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>491.1210000000001</v>
@@ -3258,21 +3519,24 @@
         <v>7536.879</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>8028</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>448.029</v>
@@ -3281,6 +3545,9 @@
         <v>3320.971</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3769</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>91123.484</v>
@@ -3337,21 +3607,24 @@
         <v>75053.516</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>166177</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>96704.3</v>
@@ -3360,21 +3633,24 @@
         <v>80054.7</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>176759</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>88426.05499999999</v>
@@ -3383,21 +3659,24 @@
         <v>80055.94500000001</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>168482</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>60065.92999999999</v>
@@ -3406,21 +3685,24 @@
         <v>69115.07000000001</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>129181</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>605.479</v>
@@ -3429,21 +3711,24 @@
         <v>114.521</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>615.268</v>
@@ -3452,21 +3737,24 @@
         <v>113.732</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>510.437</v>
@@ -3475,21 +3763,24 @@
         <v>113.563</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>624</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>698.13</v>
@@ -3498,21 +3789,24 @@
         <v>111.87</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>810</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>520.409</v>
@@ -3521,21 +3815,24 @@
         <v>108.591</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>629</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>485.863</v>
@@ -3544,44 +3841,50 @@
         <v>113.137</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>444186.094</v>
       </c>
       <c r="F12">
-        <v>292404.906</v>
+        <v>233235.34</v>
       </c>
       <c r="G12">
+        <v>59169.566</v>
+      </c>
+      <c r="H12">
         <v>736591</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>726.458</v>
@@ -3590,21 +3893,24 @@
         <v>114.542</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>111143.31</v>
@@ -3613,21 +3919,24 @@
         <v>232181.69</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>343325</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>110544.75</v>
@@ -3636,21 +3945,24 @@
         <v>232188.25</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>342733</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>116833.16</v>
@@ -3659,21 +3971,24 @@
         <v>232214.84</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>349048</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>525.348</v>
@@ -3682,21 +3997,24 @@
         <v>114.652</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>677.629</v>
@@ -3705,21 +4023,24 @@
         <v>113.371</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>791</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>510.086</v>
@@ -3728,21 +4049,24 @@
         <v>110.914</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>661.674</v>
@@ -3751,21 +4075,24 @@
         <v>108.326</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>770</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>456.668</v>
@@ -3774,21 +4101,24 @@
         <v>109.332</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>566</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>499.905</v>
@@ -3797,44 +4127,50 @@
         <v>116.095</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>616</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>867412.2999999999</v>
       </c>
       <c r="F23">
-        <v>597800.7000000001</v>
+        <v>479691.84</v>
       </c>
       <c r="G23">
+        <v>118108.86</v>
+      </c>
+      <c r="H23">
         <v>1465213</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>7580.436</v>
@@ -3843,21 +4179,24 @@
         <v>112.564</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>7693</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>222101.625</v>
@@ -3866,21 +4205,24 @@
         <v>479646.375</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>701748</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>220892.66</v>
@@ -3889,21 +4231,24 @@
         <v>479712.34</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>700605</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>226747.66</v>
@@ -3912,21 +4257,24 @@
         <v>479640.34</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>706388</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>555.533</v>
@@ -3935,21 +4283,24 @@
         <v>115.467</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>671</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>678.976</v>
@@ -3958,21 +4309,24 @@
         <v>113.024</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>792</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>540.194</v>
@@ -3981,21 +4335,24 @@
         <v>108.806</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>644.237</v>
@@ -4004,21 +4361,24 @@
         <v>130.763</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>518.495</v>
@@ -4027,21 +4387,24 @@
         <v>130.505</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>546.989</v>
@@ -4050,44 +4413,50 @@
         <v>105.011</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>349722.01</v>
       </c>
       <c r="F34">
-        <v>127367.99</v>
+        <v>80051.34</v>
       </c>
       <c r="G34">
+        <v>47316.65</v>
+      </c>
+      <c r="H34">
         <v>477090</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>736.702</v>
@@ -4096,21 +4465,24 @@
         <v>120.298</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>857</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>89386.89</v>
@@ -4119,21 +4491,24 @@
         <v>80061.11</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>169448</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>89410.61</v>
@@ -4142,21 +4517,24 @@
         <v>80049.39</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>169460</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>89109.82000000001</v>
@@ -4165,21 +4543,24 @@
         <v>80054.17999999999</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>169164</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>16547.73</v>
@@ -4188,21 +4569,24 @@
         <v>197.27</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>16745</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>472.309</v>
@@ -4211,21 +4595,24 @@
         <v>102.691</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>575</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>661.229</v>
@@ -4234,21 +4621,24 @@
         <v>104.771</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>766</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>535.886</v>
@@ -4257,21 +4647,24 @@
         <v>101.114</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>637</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>639.097</v>
@@ -4280,21 +4673,24 @@
         <v>102.903</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>543.001</v>
@@ -4303,21 +4699,24 @@
         <v>99.999</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>643</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>497.571</v>
@@ -4326,21 +4725,24 @@
         <v>127.429</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>625</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>571.015</v>
@@ -4349,21 +4751,24 @@
         <v>166.985</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>738</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>714.837</v>
@@ -4372,21 +4777,24 @@
         <v>107.163</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>822</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>536.337</v>
@@ -4395,21 +4803,24 @@
         <v>157.663</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>694</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>540.36</v>
@@ -4418,21 +4829,24 @@
         <v>168.64</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>709</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>540.691</v>
@@ -4441,21 +4855,24 @@
         <v>163.309</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>704</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>531.014</v>
@@ -4464,21 +4881,24 @@
         <v>152.986</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>684</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>558.5</v>
@@ -4487,21 +4907,24 @@
         <v>110.5</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>669</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>572.884</v>
@@ -4510,21 +4933,24 @@
         <v>118.116</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>473.005</v>
@@ -4533,21 +4959,24 @@
         <v>108.995</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>582</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>629.968</v>
@@ -4556,21 +4985,24 @@
         <v>110.032</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>740</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>530.658</v>
@@ -4579,21 +5011,24 @@
         <v>114.342</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>645</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>474.323</v>
@@ -4602,21 +5037,24 @@
         <v>114.677</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>589</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>531.437</v>
@@ -4625,21 +5063,24 @@
         <v>149.563</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>681</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>621.379</v>
@@ -4648,21 +5089,24 @@
         <v>108.621</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>730</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>507.859</v>
@@ -4671,21 +5115,24 @@
         <v>152.141</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>488.043</v>
@@ -4694,21 +5141,24 @@
         <v>145.957</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>634</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>511.83</v>
@@ -4717,44 +5167,50 @@
         <v>149.17</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
         <v>3966.738</v>
       </c>
       <c r="F63">
-        <v>294.262</v>
+        <v>102.101</v>
       </c>
       <c r="G63">
+        <v>192.161</v>
+      </c>
+      <c r="H63">
         <v>4261</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>511.511</v>
@@ -4763,21 +5219,24 @@
         <v>120.489</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>632</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>89058.08</v>
@@ -4786,21 +5245,24 @@
         <v>75053.92</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>164112</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>89091.41</v>
@@ -4809,21 +5271,24 @@
         <v>80103.59</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>169195</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>89482.13</v>
@@ -4832,21 +5297,24 @@
         <v>80053.87</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>169536</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>59580.10000000001</v>
@@ -4855,21 +5323,24 @@
         <v>69096.89999999999</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>128677</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>563.778</v>
@@ -4878,21 +5349,24 @@
         <v>107.222</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>671</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>608.414</v>
@@ -4901,21 +5375,24 @@
         <v>105.586</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>500.844</v>
@@ -4924,21 +5401,24 @@
         <v>101.156</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>602</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>641.8340000000001</v>
@@ -4947,21 +5427,24 @@
         <v>105.166</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>469.819</v>
@@ -4970,21 +5453,24 @@
         <v>102.181</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>572</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>552.035</v>
@@ -4993,44 +5479,50 @@
         <v>107.965</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>444322.98</v>
       </c>
       <c r="F75">
-        <v>292359.02</v>
+        <v>233244.22</v>
       </c>
       <c r="G75">
+        <v>59114.8</v>
+      </c>
+      <c r="H75">
         <v>736682</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>732.014</v>
@@ -5039,21 +5531,24 @@
         <v>106.986</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>839</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>112172.75</v>
@@ -5062,21 +5557,24 @@
         <v>232187.25</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>344360</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>112025.78</v>
@@ -5085,21 +5583,24 @@
         <v>232188.22</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>344214</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>117016.14</v>
@@ -5108,21 +5609,24 @@
         <v>232181.86</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>349198</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>118034.33</v>
@@ -5131,21 +5635,24 @@
         <v>75052.67</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>193087</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>90183.914</v>
@@ -5154,21 +5661,24 @@
         <v>80065.086</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>170249</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>90311.80499999999</v>
@@ -5177,21 +5687,24 @@
         <v>80052.19500000001</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>170364</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>144830.45</v>
@@ -5200,21 +5713,24 @@
         <v>247732.55</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>392563</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>591.5409999999999</v>
@@ -5223,21 +5739,24 @@
         <v>132.459</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>724</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>711.011</v>
@@ -5246,21 +5765,24 @@
         <v>123.989</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>835</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>636.098</v>
@@ -5269,21 +5791,24 @@
         <v>116.902</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>753</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>659.191</v>
@@ -5292,21 +5817,24 @@
         <v>106.809</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>766</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>476.725</v>
@@ -5315,21 +5843,24 @@
         <v>117.275</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>594</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>436.543</v>
@@ -5338,44 +5869,50 @@
         <v>109.457</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>546</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
-        <v>435486.303</v>
+        <v>435486.3030000001</v>
       </c>
       <c r="F90">
-        <v>292342.697</v>
+        <v>233233.83</v>
       </c>
       <c r="G90">
+        <v>59108.867</v>
+      </c>
+      <c r="H90">
         <v>727829</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>777.133</v>
@@ -5384,21 +5921,24 @@
         <v>113.867</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>891</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>111743.83</v>
@@ -5407,21 +5947,24 @@
         <v>232194.17</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>343938</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>111147.95</v>
@@ -5430,21 +5973,24 @@
         <v>232178.05</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>343326</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>115988.53</v>
@@ -5453,21 +5999,24 @@
         <v>232180.47</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>348169</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>115443.484</v>
@@ -5476,21 +6025,24 @@
         <v>75116.516</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>190560</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>88377.72</v>
@@ -5499,21 +6051,24 @@
         <v>80047.28</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>168425</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>88296.62</v>
@@ -5522,21 +6077,24 @@
         <v>80052.38</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>168349</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>142780.73</v>
@@ -5545,21 +6103,24 @@
         <v>247734.27</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>390515</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>505.546</v>
@@ -5568,21 +6129,24 @@
         <v>103.454</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>609</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>622.157</v>
@@ -5591,21 +6155,24 @@
         <v>100.843</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>723</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>552.349</v>
@@ -5614,21 +6181,24 @@
         <v>103.651</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>656</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>564.977</v>
@@ -5637,21 +6207,24 @@
         <v>103.023</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>668</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>517.279</v>
@@ -5660,21 +6233,24 @@
         <v>108.721</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>626</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>529.712</v>
@@ -5683,44 +6259,50 @@
         <v>102.288</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>632</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>437439.66</v>
       </c>
       <c r="F105">
-        <v>292350.34</v>
+        <v>233239.86</v>
       </c>
       <c r="G105">
+        <v>59110.48</v>
+      </c>
+      <c r="H105">
         <v>729790</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>760.444</v>
@@ -5729,21 +6311,24 @@
         <v>118.556</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>879</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>111510.9</v>
@@ -5752,21 +6337,24 @@
         <v>232173.1</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>343684</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>110225.98</v>
@@ -5775,21 +6363,24 @@
         <v>232209.02</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>342435</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>115308.56</v>
@@ -5798,21 +6389,24 @@
         <v>232159.44</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>347468</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>113277.14</v>
@@ -5821,21 +6415,24 @@
         <v>74985.86</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>188263</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>88795.98</v>
@@ -5844,21 +6441,24 @@
         <v>80057.02</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>168853</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>88947.94500000001</v>
@@ -5867,21 +6467,24 @@
         <v>80111.05499999999</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>169059</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>142377.86</v>
@@ -5890,21 +6493,24 @@
         <v>247757.14</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>390135</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>505.933</v>
@@ -5913,21 +6519,24 @@
         <v>105.067</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>611</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>591.925</v>
@@ -5936,21 +6545,24 @@
         <v>100.075</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>487.223</v>
@@ -5959,21 +6571,24 @@
         <v>100.777</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>633.049</v>
@@ -5982,21 +6597,24 @@
         <v>118.951</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>752</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>534.575</v>
@@ -6005,21 +6623,24 @@
         <v>118.425</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>653</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>507.028</v>
@@ -6028,44 +6649,50 @@
         <v>110.972</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>618</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
         <v>864406.86</v>
       </c>
       <c r="F120">
-        <v>597797.14</v>
+        <v>479702.1</v>
       </c>
       <c r="G120">
+        <v>118095.04</v>
+      </c>
+      <c r="H120">
         <v>1462204</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>5601.498</v>
@@ -6074,21 +6701,24 @@
         <v>120.502</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>5722</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>220937.8</v>
@@ -6097,21 +6727,24 @@
         <v>479696.2</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>700634</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>223100.97</v>
@@ -6120,21 +6753,24 @@
         <v>479678.03</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>702779</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>225159.25</v>
@@ -6143,21 +6779,24 @@
         <v>479708.75</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>704868</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>575.5170000000001</v>
@@ -6166,21 +6805,24 @@
         <v>102.483</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>678</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>654.912</v>
@@ -6189,21 +6831,24 @@
         <v>102.088</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>757</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>491.084</v>
@@ -6212,21 +6857,24 @@
         <v>123.916</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>615</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>640.622</v>
@@ -6235,21 +6883,24 @@
         <v>107.378</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>748</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>518.867</v>
@@ -6258,21 +6909,24 @@
         <v>106.133</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>625</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>521.984</v>
@@ -6281,44 +6935,50 @@
         <v>114.016</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>636</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>340029.145</v>
       </c>
       <c r="F131">
-        <v>127449.855</v>
+        <v>80089.89</v>
       </c>
       <c r="G131">
+        <v>47359.965</v>
+      </c>
+      <c r="H131">
         <v>467479</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>805.251</v>
@@ -6327,21 +6987,24 @@
         <v>119.749</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>925</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>88680.3</v>
@@ -6350,21 +7013,24 @@
         <v>80110.7</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>168791</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>88195.2</v>
@@ -6373,21 +7039,24 @@
         <v>80110.8</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>168306</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>88302.52</v>
@@ -6396,21 +7065,24 @@
         <v>80097.48</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>168400</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>16425.18</v>
@@ -6419,21 +7091,24 @@
         <v>167.82</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>16593</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>564.889</v>
@@ -6442,21 +7117,24 @@
         <v>112.111</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>677</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>710.402</v>
@@ -6465,21 +7143,24 @@
         <v>109.598</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>820</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>510.669</v>
@@ -6488,21 +7169,24 @@
         <v>129.331</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>640</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>679.289</v>
@@ -6511,21 +7195,24 @@
         <v>110.711</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>790</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>460.508</v>
@@ -6534,21 +7221,24 @@
         <v>103.492</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>564</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>532.476</v>
@@ -6557,21 +7247,24 @@
         <v>116.524</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>649</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>566.7760000000001</v>
@@ -6580,21 +7273,24 @@
         <v>163.224</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>730</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>642.26</v>
@@ -6603,21 +7299,24 @@
         <v>110.74</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>753</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>532.5940000000001</v>
@@ -6626,21 +7325,24 @@
         <v>158.406</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>588.085</v>
@@ -6649,21 +7351,24 @@
         <v>160.915</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>749</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>571.0170000000001</v>
@@ -6672,21 +7377,24 @@
         <v>165.983</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>737</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>576.595</v>
@@ -6695,21 +7403,24 @@
         <v>139.405</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>716</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>524.501</v>
@@ -6718,21 +7429,24 @@
         <v>100.499</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>673.785</v>
@@ -6741,21 +7455,24 @@
         <v>96.215</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>770</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>548.816</v>
@@ -6764,21 +7481,24 @@
         <v>96.184</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>645</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>606.625</v>
@@ -6787,21 +7507,24 @@
         <v>101.375</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>708</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>478.561</v>
@@ -6810,21 +7533,24 @@
         <v>97.43899999999999</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>471.767</v>
@@ -6833,21 +7559,24 @@
         <v>93.233</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>565</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>504.527</v>
@@ -6856,21 +7585,24 @@
         <v>141.473</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>702.447</v>
@@ -6879,21 +7611,24 @@
         <v>103.553</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>806</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>524.462</v>
@@ -6902,21 +7637,24 @@
         <v>145.538</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>670</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>509.353</v>
@@ -6925,21 +7663,24 @@
         <v>143.647</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>653</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>552.01</v>
@@ -6948,21 +7689,24 @@
         <v>179.99</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>732</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>551.752</v>
@@ -6971,6 +7715,9 @@
         <v>117.248</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>669</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>25303.294</v>
       </c>
       <c r="F2">
-        <v>1360.706</v>
+        <v>498.405</v>
       </c>
       <c r="G2">
+        <v>862.301</v>
+      </c>
+      <c r="H2">
         <v>26664</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>7963.259</v>
@@ -7050,21 +7803,24 @@
         <v>495.741</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>8459</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>29415.197</v>
@@ -7073,21 +7829,24 @@
         <v>1666.803</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>31082</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>25925.64</v>
@@ -7096,21 +7855,24 @@
         <v>1667.36</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>27593</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>25779.737</v>
@@ -7119,6 +7881,9 @@
         <v>1678.263</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>27458</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>18258.985</v>
@@ -7175,21 +7943,24 @@
         <v>1542.015</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>19801</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>663.8430000000001</v>
@@ -7198,21 +7969,24 @@
         <v>1538.157</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2202</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>20448.364</v>
@@ -7221,21 +7995,24 @@
         <v>10688.636</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>31137</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>20403.8</v>
@@ -7244,21 +8021,24 @@
         <v>10683.2</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>31087</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>20738.096</v>
@@ -7267,6 +8047,9 @@
         <v>10690.904</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>31429</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>89238.633</v>
@@ -7323,21 +8109,24 @@
         <v>40157.367</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>129396</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>89272.367</v>
@@ -7346,44 +8135,50 @@
         <v>40167.633</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>129440</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>49296.77100000001</v>
+        <v>49296.771</v>
       </c>
       <c r="F4">
-        <v>109433.229</v>
+        <v>108532.484</v>
       </c>
       <c r="G4">
+        <v>900.745</v>
+      </c>
+      <c r="H4">
         <v>158730</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>89431.33600000001</v>
@@ -7392,21 +8187,24 @@
         <v>40194.664</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>129626</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>88937.69500000001</v>
@@ -7415,21 +8213,24 @@
         <v>40174.305</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>129112</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>43619.625</v>
@@ -7438,21 +8239,24 @@
         <v>108557.375</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>152177</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>88768.3125</v>
@@ -7461,21 +8265,24 @@
         <v>40159.6875</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>128928</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>88829.08</v>
@@ -7484,21 +8291,24 @@
         <v>40163.92</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>128993</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>128493.73</v>
@@ -7507,21 +8317,24 @@
         <v>202509.27</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>331003</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>88411.844</v>
@@ -7530,21 +8343,24 @@
         <v>40217.156</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>128629</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>88533.39999999999</v>
@@ -7553,21 +8369,24 @@
         <v>40173.6</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>128707</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>127256.77</v>
@@ -7576,21 +8395,24 @@
         <v>202524.23</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>329781</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>89242.88</v>
@@ -7599,21 +8421,24 @@
         <v>40204.12</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>129447</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>89063.027</v>
@@ -7622,21 +8447,24 @@
         <v>40194.973</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>129258</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>127517.27</v>
@@ -7645,6 +8473,9 @@
         <v>202565.73</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>330083</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>277174.0249999999</v>
       </c>
       <c r="F2">
-        <v>1229891.975</v>
+        <v>1182536.6</v>
       </c>
       <c r="G2">
+        <v>47355.375</v>
+      </c>
+      <c r="H2">
         <v>1507066</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>264257.4700000002</v>
+        <v>264257.4700000001</v>
       </c>
       <c r="F3">
-        <v>1229892.53</v>
+        <v>1182560.4</v>
       </c>
       <c r="G3">
+        <v>47332.13</v>
+      </c>
+      <c r="H3">
         <v>1494150</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>271873.4469999999</v>
       </c>
       <c r="F4">
-        <v>1230077.553</v>
+        <v>1182759.6</v>
       </c>
       <c r="G4">
+        <v>47317.953</v>
+      </c>
+      <c r="H4">
         <v>1501951</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>268576.4269999999</v>
       </c>
       <c r="F5">
-        <v>1229992.573</v>
+        <v>1182675.1</v>
       </c>
       <c r="G5">
+        <v>47317.473</v>
+      </c>
+      <c r="H5">
         <v>1498569</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>268115.027</v>
       </c>
       <c r="F6">
-        <v>1229958.973</v>
+        <v>1182626.5</v>
       </c>
       <c r="G6">
+        <v>47332.473</v>
+      </c>
+      <c r="H6">
         <v>1498074</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>51563.211</v>
       </c>
       <c r="F2">
-        <v>64259.789</v>
+        <v>61766.754</v>
       </c>
       <c r="G2">
+        <v>2493.035</v>
+      </c>
+      <c r="H2">
         <v>115823</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>46827.086</v>
       </c>
       <c r="F3">
-        <v>63341.914</v>
+        <v>61755.74</v>
       </c>
       <c r="G3">
+        <v>1586.174</v>
+      </c>
+      <c r="H3">
         <v>110169</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>131330.265</v>
       </c>
       <c r="F4">
-        <v>248499.735</v>
+        <v>246903.92</v>
       </c>
       <c r="G4">
+        <v>1595.815</v>
+      </c>
+      <c r="H4">
         <v>379830</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>144934.658</v>
       </c>
       <c r="F5">
-        <v>248578.342</v>
+        <v>246984.4</v>
       </c>
       <c r="G5">
+        <v>1593.942</v>
+      </c>
+      <c r="H5">
         <v>393513</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>144971.392</v>
       </c>
       <c r="F6">
-        <v>248502.608</v>
+        <v>246911.2</v>
       </c>
       <c r="G6">
+        <v>1591.408</v>
+      </c>
+      <c r="H6">
         <v>393474</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>38239.32</v>
@@ -7997,21 +8867,24 @@
         <v>45096.68</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>83336</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>44388.605</v>
@@ -8020,21 +8893,24 @@
         <v>45079.395</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>89468</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>245368.25</v>
@@ -8043,21 +8919,24 @@
         <v>327085.75</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>572454</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>311010.47</v>
@@ -8066,21 +8945,24 @@
         <v>327110.53</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>638121</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>311339.34</v>
@@ -8089,21 +8971,24 @@
         <v>327106.66</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>638446</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>70949.541</v>
@@ -8112,21 +8997,24 @@
         <v>16520.459</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>87470</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>19093.8125</v>
@@ -8135,21 +9023,24 @@
         <v>21268.1875</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>40362</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>29803.783</v>
@@ -8158,6 +9049,9 @@
         <v>30150.217</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>59954</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch45/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>79166.409</v>
+        <v>78232.2</v>
       </c>
       <c r="E2">
         <v>71175.591</v>
       </c>
       <c r="F2">
+        <v>934.2089999999999</v>
+      </c>
+      <c r="G2">
         <v>150342</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>556757.26</v>
+        <v>554846.0310000001</v>
       </c>
       <c r="E3">
         <v>3875935.74</v>
       </c>
       <c r="F3">
+        <v>1911.229</v>
+      </c>
+      <c r="G3">
         <v>4432693</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>10061950.53900001</v>
+        <v>9494374.15000001</v>
       </c>
       <c r="E4">
         <v>10267411.46099999</v>
       </c>
       <c r="F4">
+        <v>567576.389</v>
+      </c>
+      <c r="G4">
         <v>20329362</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>115249.428</v>
+        <v>114387.127</v>
       </c>
       <c r="E5">
         <v>6006.572</v>
       </c>
       <c r="F5">
+        <v>862.301</v>
+      </c>
+      <c r="G5">
         <v>121256</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>35142.912</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>115656</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>1366813.4855</v>
+        <v>1365912.7405</v>
       </c>
       <c r="E7">
         <v>1226496.5145</v>
       </c>
       <c r="F7">
+        <v>900.745</v>
+      </c>
+      <c r="G7">
         <v>2593310</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1586651.8</v>
+        <v>1349996.396</v>
       </c>
       <c r="E8">
         <v>5913158.2</v>
       </c>
       <c r="F8">
+        <v>236655.404</v>
+      </c>
+      <c r="G8">
         <v>7499810</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>528486.986</v>
+        <v>519626.612</v>
       </c>
       <c r="E9">
         <v>864322.014</v>
       </c>
       <c r="F9">
+        <v>8860.374</v>
+      </c>
+      <c r="G9">
         <v>1392809</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>1139417.8785</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2209611</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>5225403.684</v>
+        <v>4761127.698999999</v>
       </c>
       <c r="E11">
         <v>8366989.316</v>
       </c>
       <c r="F11">
+        <v>464275.985</v>
+      </c>
+      <c r="G11">
         <v>13592393</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>3850704.119</v>
+        <v>3283350.284</v>
       </c>
       <c r="E12">
         <v>3043514.881000001</v>
       </c>
       <c r="F12">
+        <v>567353.8350000001</v>
+      </c>
+      <c r="G12">
         <v>6894219</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>7470496.452</v>
+        <v>6335665.560999999</v>
       </c>
       <c r="E13">
         <v>6095753.548</v>
       </c>
       <c r="F13">
+        <v>1134830.891</v>
+      </c>
+      <c r="G13">
         <v>13566250</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1259.721</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>280237</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>302517.0855</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1380988</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>2789758.524</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>2836472</v>
       </c>
     </row>
